--- a/UFED PA - SQLite Wizard List.xlsx
+++ b/UFED PA - SQLite Wizard List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9751817-D363-4F74-A773-19F89335C533}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA35B49D-44AC-4944-88F1-269B84AA966F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Android" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Purpose</t>
   </si>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -392,6 +392,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -402,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5055A682-E554-488F-9569-DEFBA5FE9D2A}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/UFED PA - SQLite Wizard List.xlsx
+++ b/UFED PA - SQLite Wizard List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA35B49D-44AC-4944-88F1-269B84AA966F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD9ACBD-65A6-40DE-8998-5413B51F5C68}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Android" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Purpose</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>Slack Chats - iOS.xml</t>
   </si>
 </sst>
 </file>
@@ -367,7 +370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5055A682-E554-488F-9569-DEFBA5FE9D2A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,6 +446,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
